--- a/RanDunGeon/Assets/GameResources/ExelImforter/MonsterStatus.xlsx
+++ b/RanDunGeon/Assets/GameResources/ExelImforter/MonsterStatus.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphapo/Desktop/UnityProject/2024_01_A_TeamProject/RanDunGeon/Assets/GameResources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitFork\2024_01_A_TeamProject\RanDunGeon\Assets\GameResources\ExelImforter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648C2D1-61AF-2446-BF24-2088A2E6A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" activeTab="2" xr2:uid="{3D0208CF-FB2A-DB42-B6D0-7B43D6D6B88C}"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="28305" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 0" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1" sheetId="3" r:id="rId2"/>
     <sheet name="Chapter 2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,22 +87,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardCard</t>
   </si>
   <si>
     <t>RewardCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,16 +493,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49571E-AAAE-6949-BB21-9F9C5343F305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,13 +537,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -588,16 +591,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2AF673-7853-FD47-A2E1-46ADAFA4D270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -632,13 +635,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -720,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -761,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -802,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -850,16 +853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337DEDC-8E51-7947-A718-51C45C28FCC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -894,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>100000</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>22</v>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>

--- a/RanDunGeon/Assets/GameResources/ExelImforter/MonsterStatus.xlsx
+++ b/RanDunGeon/Assets/GameResources/ExelImforter/MonsterStatus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitFork\2024_01_A_TeamProject\RanDunGeon\Assets\GameResources\ExelImforter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\UnityProjects\2024_01_A_TeamProject\RanDunGeon\Assets\GameResources\ExelImforter\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35721525-4CF2-4F55-8D20-8E4849B2FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="28305" windowHeight="16935"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 0" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -105,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -493,10 +483,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -591,10 +581,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -853,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1184,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1225,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1266,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1307,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M11">
         <v>0</v>

--- a/RanDunGeon/Assets/GameResources/ExelImforter/MonsterStatus.xlsx
+++ b/RanDunGeon/Assets/GameResources/ExelImforter/MonsterStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\UnityProjects\2024_01_A_TeamProject\RanDunGeon\Assets\GameResources\ExelImforter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35721525-4CF2-4F55-8D20-8E4849B2FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C192AC33-6CEA-411F-A96A-3E4A1A698F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 0" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1074,16 +1074,16 @@
         <v>300</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>30000</v>
@@ -1115,16 +1115,16 @@
         <v>300</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>40000</v>
@@ -1253,7 +1253,7 @@
         <v>100000</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>23</v>
@@ -1288,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>160000</v>
